--- a/biology/Zoologie/Eremiascincus_emigrans/Eremiascincus_emigrans.xlsx
+++ b/biology/Zoologie/Eremiascincus_emigrans/Eremiascincus_emigrans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eremiascincus emigrans est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eremiascincus emigrans est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique d'Indonésie. Elle se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est endémique d'Indonésie. Elle se rencontre :
 sur l'île de Wetar dans les Moluques ;
 sur les îles de Sumba et de Komodo dans les Petites îles de la Sonde.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (20 septembre 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (20 septembre 2012) :
 Eremiascincus emigrans emigrans (Lidth De Jeude, 1895)
 Eremiascincus emigrans wetariensis (Mertens, 1928)</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lidth De Jeude, 1895 : Reptiles from Timor and the neighbouring islands. Notes from the Leyden Museum, vol. 16, p. 119-127 (texte intégral).
 Mertens, 1928 : Herpetologische Mitteilungen. Xx. Eine neue Eidechse von Wetar. Sphenomorphus emigrans wetariensis subsp. n. Senckenbergiana, vol. 10, no 3, p. 228-229.</t>
